--- a/HW4/1.xlsx
+++ b/HW4/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yishunxu/University/19_autumn/GitLab/homework/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E717C6-8F37-CF4A-90D6-8F051BD3B084}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AE6B5D-F595-EC43-B1D9-2A3127BFA133}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00BB0DCD-165E-7343-B779-E05468385F60}"/>
+    <workbookView xWindow="9860" yWindow="0" windowWidth="15740" windowHeight="16000" xr2:uid="{00BB0DCD-165E-7343-B779-E05468385F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>栈</t>
   </si>
@@ -135,9 +135,6 @@
     <t>$ ( L , S</t>
   </si>
   <si>
-    <t>$ ( L , S )</t>
-  </si>
-  <si>
     <t xml:space="preserve">   $</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>接受</t>
+  </si>
+  <si>
+    <t>$ ( L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ) $</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD54BE-FAA9-834E-BBD8-BFB1C04C1F01}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,26 +715,26 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -739,16 +742,17 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>